--- a/Module 6 One Sample z-test/Lecture Practice/Global Climate Anomalies.xlsx
+++ b/Module 6 One Sample z-test/Lecture Practice/Global Climate Anomalies.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/07_ Cursos/Stats_Grad/Module 6 One Sample z-test/Lecture Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{3EE6B6DD-E2D5-F74B-B07E-6168B8E6C81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F087EC96-D419-492E-8D55-05F42EFC199E}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{3EE6B6DD-E2D5-F74B-B07E-6168B8E6C81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D05E7A4C-61EA-4D8E-9402-1FB70DE41E3F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="fall_2024" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$K$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fall_2024!$A$1:$K$93</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="32">
   <si>
     <t>Year</t>
   </si>
@@ -131,277 +131,13 @@
     <t>Anthropocene</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
-    <t>deaths</t>
+    <t>era</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>min_pressure</t>
-  </si>
-  <si>
-    <t>damage_norm</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>femininity</t>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Able</t>
-  </si>
-  <si>
-    <t>Barbara</t>
-  </si>
-  <si>
-    <t>Florence</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t>Edna</t>
-  </si>
-  <si>
-    <t>Hazel</t>
-  </si>
-  <si>
-    <t>Connie</t>
-  </si>
-  <si>
-    <t>Diane</t>
-  </si>
-  <si>
-    <t>Ione</t>
-  </si>
-  <si>
-    <t>Flossy</t>
-  </si>
-  <si>
-    <t>Helene</t>
-  </si>
-  <si>
-    <t>Debra</t>
-  </si>
-  <si>
-    <t>Gracie</t>
-  </si>
-  <si>
-    <t>Donna</t>
-  </si>
-  <si>
-    <t>Ethel</t>
-  </si>
-  <si>
-    <t>Carla</t>
-  </si>
-  <si>
-    <t>Cindy</t>
-  </si>
-  <si>
-    <t>Cleo</t>
-  </si>
-  <si>
-    <t>Dora</t>
-  </si>
-  <si>
-    <t>Hilda</t>
-  </si>
-  <si>
-    <t>Isbell</t>
-  </si>
-  <si>
-    <t>Betsy</t>
-  </si>
-  <si>
-    <t>Alma</t>
-  </si>
-  <si>
-    <t>Inez</t>
-  </si>
-  <si>
-    <t>Beulah</t>
-  </si>
-  <si>
-    <t>Gladys</t>
-  </si>
-  <si>
-    <t>Camille</t>
-  </si>
-  <si>
-    <t>Celia</t>
-  </si>
-  <si>
-    <t>Edith</t>
-  </si>
-  <si>
-    <t>Fern</t>
-  </si>
-  <si>
-    <t>Ginger</t>
-  </si>
-  <si>
-    <t>Agnes</t>
-  </si>
-  <si>
-    <t>Carmen</t>
-  </si>
-  <si>
-    <t>Eloise</t>
-  </si>
-  <si>
-    <t>Belle</t>
-  </si>
-  <si>
-    <t>Babe</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Frederic</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Alicia</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Danny</t>
-  </si>
-  <si>
-    <t>Elena</t>
-  </si>
-  <si>
-    <t>Gloria</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>Bonnie</t>
-  </si>
-  <si>
-    <t>Charley</t>
-  </si>
-  <si>
-    <t>Floyd</t>
-  </si>
-  <si>
-    <t>Chantal</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Erin</t>
-  </si>
-  <si>
-    <t>Opal</t>
-  </si>
-  <si>
-    <t>Bertha</t>
-  </si>
-  <si>
-    <t>Fran</t>
-  </si>
-  <si>
-    <t>Earl</t>
-  </si>
-  <si>
-    <t>Georges</t>
-  </si>
-  <si>
-    <t>Bret</t>
-  </si>
-  <si>
-    <t>Irene</t>
-  </si>
-  <si>
-    <t>Lili</t>
-  </si>
-  <si>
-    <t>Claudette</t>
-  </si>
-  <si>
-    <t>Isabel</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Frances</t>
-  </si>
-  <si>
-    <t>Gaston</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Jeanne</t>
-  </si>
-  <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>Ophelia</t>
-  </si>
-  <si>
-    <t>Rita</t>
-  </si>
-  <si>
-    <t>Wilma</t>
-  </si>
-  <si>
-    <t>Humberto</t>
-  </si>
-  <si>
-    <t>Dolly</t>
-  </si>
-  <si>
-    <t>Gustav</t>
-  </si>
-  <si>
-    <t>Ike</t>
-  </si>
-  <si>
-    <t>Isaac</t>
-  </si>
-  <si>
-    <t>Sandy</t>
+    <t>Annual_Anom_J_D</t>
   </si>
 </sst>
 </file>
@@ -458,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -471,6 +207,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,6 +226,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9448,3001 +9191,1551 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3F71F5-C412-4EB3-9BC8-C164B7FC55D2}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K86"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="43.2">
+      <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>1880</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>1881</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>1882</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>1883</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>1884</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>1885</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>1886</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>1887</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>1888</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>1889</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>1890</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>1891</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>1892</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>1893</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>1894</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>1895</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>1896</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>1897</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>1898</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>1899</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>1900</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>1901</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>1902</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>1903</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>1904</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>1905</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>1906</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>1907</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>1908</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>1909</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>1910</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>1911</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>1912</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>1913</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>1914</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>1915</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>1916</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>1917</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>1918</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>1919</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="3">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>1920</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="3">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>1921</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>1922</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="3">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>1923</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="3">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>1924</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="3">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>1925</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="3">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>1926</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>1927</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="3">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>1928</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="3">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>1929</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="3">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>1930</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="3">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>1931</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="3">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>1932</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="3">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>1933</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="3">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>1934</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>1935</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="3">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>1936</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="3">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>1937</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>1938</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>1939</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>1940</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>1941</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>1942</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>1943</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>1944</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>1945</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="3">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>1946</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="3">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>1947</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>1948</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="3">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>1949</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="3">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>1950</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="3">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>1951</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="3">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>1952</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>1953</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>1954</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="3">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>1955</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="3">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>1956</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="3">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>1957</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>1958</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>1959</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>1960</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>1961</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>1962</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>1963</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>1964</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="3">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>1965</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="3">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="3">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>1967</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>1968</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>1969</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>1971</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="3">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>1972</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>1973</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="3">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>1975</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>1976</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="3">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>1977</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>1979</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>1980</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="3">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>1981</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>1983</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>1987</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>1989</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="3">
         <v>37</v>
       </c>
-      <c r="B2">
-        <v>1950</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>960</v>
-      </c>
-      <c r="F2">
-        <v>1590</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>6.7777799999999999</v>
-      </c>
-      <c r="J2">
-        <v>1950</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>1950</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>955</v>
-      </c>
-      <c r="F3">
-        <v>5350</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1.38889</v>
-      </c>
-      <c r="J3">
-        <v>1950</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>1952</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>985</v>
-      </c>
-      <c r="F4">
-        <v>150</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3.8333300000000001</v>
-      </c>
-      <c r="J4">
-        <v>1952</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>1953</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>987</v>
-      </c>
-      <c r="F5">
-        <v>58</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>9.8333300000000001</v>
-      </c>
-      <c r="J5">
-        <v>1953</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>1953</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>985</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>8.3333300000000001</v>
-      </c>
-      <c r="J6">
-        <v>1953</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7">
-        <v>1954</v>
-      </c>
-      <c r="C7">
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" s="3">
         <v>60</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>960</v>
-      </c>
-      <c r="F7">
-        <v>19321</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>8.11111</v>
-      </c>
-      <c r="J7">
-        <v>1954</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8">
-        <v>1954</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>954</v>
-      </c>
-      <c r="F8">
-        <v>3230</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>8.5555599999999998</v>
-      </c>
-      <c r="J8">
-        <v>1954</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9">
-        <v>1954</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>938</v>
-      </c>
-      <c r="F9">
-        <v>24260</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>9.4444400000000002</v>
-      </c>
-      <c r="J9">
-        <v>1954</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10">
-        <v>1955</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>962</v>
-      </c>
-      <c r="F10">
-        <v>2030</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>8.5</v>
-      </c>
-      <c r="J10">
-        <v>1955</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11">
-        <v>1955</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>987</v>
-      </c>
-      <c r="F11">
-        <v>14730</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>9.88889</v>
-      </c>
-      <c r="J11">
-        <v>1955</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12">
-        <v>1955</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>960</v>
-      </c>
-      <c r="F12">
-        <v>6200</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>5.9444400000000002</v>
-      </c>
-      <c r="J12">
-        <v>1955</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13">
-        <v>1956</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>975</v>
-      </c>
-      <c r="F13">
-        <v>1540</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="J13">
-        <v>1956</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14">
-        <v>1958</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>946</v>
-      </c>
-      <c r="F14">
-        <v>540</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>9.88889</v>
-      </c>
-      <c r="J14">
-        <v>1958</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15">
-        <v>1959</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>984</v>
-      </c>
-      <c r="F15">
-        <v>430</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>9.88889</v>
-      </c>
-      <c r="J15">
-        <v>1959</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16">
-        <v>1959</v>
-      </c>
-      <c r="C16">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>950</v>
-      </c>
-      <c r="F16">
-        <v>510</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>9.7777799999999999</v>
-      </c>
-      <c r="J16">
-        <v>1959</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17">
-        <v>1960</v>
-      </c>
-      <c r="C17">
-        <v>50</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>930</v>
-      </c>
-      <c r="F17">
-        <v>53270</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>9.2777799999999999</v>
-      </c>
-      <c r="J17">
-        <v>1960</v>
-      </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18">
-        <v>1960</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>981</v>
-      </c>
-      <c r="F18">
-        <v>35</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>8.7222200000000001</v>
-      </c>
-      <c r="J18">
-        <v>1960</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19">
-        <v>1961</v>
-      </c>
-      <c r="C19">
-        <v>46</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>931</v>
-      </c>
-      <c r="F19">
-        <v>15850</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>9.5</v>
-      </c>
-      <c r="J19">
-        <v>1961</v>
-      </c>
-      <c r="K19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20">
-        <v>1963</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>996</v>
-      </c>
-      <c r="F20">
-        <v>300</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>9.9444400000000002</v>
-      </c>
-      <c r="J20">
-        <v>1963</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21">
-        <v>1964</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>968</v>
-      </c>
-      <c r="F21">
-        <v>6450</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>7.9444400000000002</v>
-      </c>
-      <c r="J21">
-        <v>1964</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1">
-      <c r="A22" t="s">
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="3">
         <v>57</v>
       </c>
-      <c r="B22">
-        <v>1964</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>966</v>
-      </c>
-      <c r="F22">
-        <v>16260</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>9.3333300000000001</v>
-      </c>
-      <c r="J22">
-        <v>1964</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23">
-        <v>1964</v>
-      </c>
-      <c r="C23">
-        <v>37</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>950</v>
-      </c>
-      <c r="F23">
-        <v>2770</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>8.8333300000000001</v>
-      </c>
-      <c r="J23">
-        <v>1964</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24">
-        <v>1964</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>974</v>
-      </c>
-      <c r="F24">
-        <v>800</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>9.4444400000000002</v>
-      </c>
-      <c r="J24">
-        <v>1964</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25">
-        <v>1965</v>
-      </c>
-      <c r="C25">
-        <v>75</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>948</v>
-      </c>
-      <c r="F25">
-        <v>20000</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>8.3333300000000001</v>
-      </c>
-      <c r="J25">
-        <v>1965</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26">
-        <v>1966</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>982</v>
-      </c>
-      <c r="F26">
-        <v>730</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>8.7777799999999999</v>
-      </c>
-      <c r="J26">
-        <v>1966</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27">
-        <v>1966</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>983</v>
-      </c>
-      <c r="F27">
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C133" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C134" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" s="3">
         <v>99</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>8.2777799999999999</v>
-      </c>
-      <c r="J27">
-        <v>1966</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28">
-        <v>1967</v>
-      </c>
-      <c r="C28">
-        <v>15</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>950</v>
-      </c>
-      <c r="F28">
-        <v>5060</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>7.2777799999999999</v>
-      </c>
-      <c r="J28">
-        <v>1967</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29">
-        <v>1968</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>977</v>
-      </c>
-      <c r="F29">
-        <v>800</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>8.9444400000000002</v>
-      </c>
-      <c r="J29">
-        <v>1968</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30">
-        <v>1969</v>
-      </c>
-      <c r="C30">
-        <v>256</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>909</v>
-      </c>
-      <c r="F30">
-        <v>23040</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>9.0555599999999998</v>
-      </c>
-      <c r="J30">
-        <v>1969</v>
-      </c>
-      <c r="K30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31">
-        <v>1970</v>
-      </c>
-      <c r="C31">
-        <v>22</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>945</v>
-      </c>
-      <c r="F31">
-        <v>6870</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>9.4444400000000002</v>
-      </c>
-      <c r="J31">
-        <v>1970</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32">
-        <v>1971</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>978</v>
-      </c>
-      <c r="F32">
-        <v>300</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>8.5</v>
-      </c>
-      <c r="J32">
-        <v>1971</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33">
-        <v>1971</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>979</v>
-      </c>
-      <c r="F33">
-        <v>500</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>7.38889</v>
-      </c>
-      <c r="J33">
-        <v>1971</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34">
-        <v>1971</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>995</v>
-      </c>
-      <c r="F34">
-        <v>200</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="J34">
-        <v>1971</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1">
-      <c r="A35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35">
-        <v>1972</v>
-      </c>
-      <c r="C35">
-        <v>117</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>980</v>
-      </c>
-      <c r="F35">
-        <v>20430</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>8.6666699999999999</v>
-      </c>
-      <c r="J35">
-        <v>1972</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36">
-        <v>1974</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>952</v>
-      </c>
-      <c r="F36">
-        <v>1180</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>8.7222200000000001</v>
-      </c>
-      <c r="J36">
-        <v>1974</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37">
-        <v>1975</v>
-      </c>
-      <c r="C37">
-        <v>21</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37">
-        <v>955</v>
-      </c>
-      <c r="F37">
-        <v>6190</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>8.9444400000000002</v>
-      </c>
-      <c r="J37">
-        <v>1975</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1">
-      <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38">
-        <v>1976</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>980</v>
-      </c>
-      <c r="F38">
-        <v>570</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>10.44444</v>
-      </c>
-      <c r="J38">
-        <v>1976</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39">
-        <v>1977</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>995</v>
-      </c>
-      <c r="F39">
-        <v>66</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>6.88889</v>
-      </c>
-      <c r="J39">
-        <v>1977</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1">
-      <c r="A40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40">
-        <v>1979</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>986</v>
-      </c>
-      <c r="F40">
-        <v>70</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1.6666700000000001</v>
-      </c>
-      <c r="J40">
-        <v>1979</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1">
-      <c r="A41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41">
-        <v>1979</v>
-      </c>
-      <c r="C41">
-        <v>15</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>970</v>
-      </c>
-      <c r="F41">
-        <v>2700</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1.7222200000000001</v>
-      </c>
-      <c r="J41">
-        <v>1979</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42">
-        <v>1979</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>946</v>
-      </c>
-      <c r="F42">
-        <v>12770</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>2.5</v>
-      </c>
-      <c r="J42">
-        <v>1979</v>
-      </c>
-      <c r="K42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43">
-        <v>1980</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43">
-        <v>945</v>
-      </c>
-      <c r="F43">
-        <v>2130</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>2.6666699999999999</v>
-      </c>
-      <c r="J43">
-        <v>1980</v>
-      </c>
-      <c r="K43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44">
-        <v>1983</v>
-      </c>
-      <c r="C44">
-        <v>21</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>962</v>
-      </c>
-      <c r="F44">
-        <v>10400</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>9.8333300000000001</v>
-      </c>
-      <c r="J44">
-        <v>1983</v>
-      </c>
-      <c r="K44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45">
-        <v>1984</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>949</v>
-      </c>
-      <c r="F45">
-        <v>410</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>9.9444400000000002</v>
-      </c>
-      <c r="J45">
-        <v>1984</v>
-      </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1">
-      <c r="A46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46">
-        <v>1985</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1003</v>
-      </c>
-      <c r="F46">
-        <v>130</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1.6666700000000001</v>
-      </c>
-      <c r="J46">
-        <v>1985</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1">
-      <c r="A47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47">
-        <v>1985</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>987</v>
-      </c>
-      <c r="F47">
-        <v>160</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>2.2222200000000001</v>
-      </c>
-      <c r="J47">
-        <v>1985</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48">
-        <v>1985</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48">
-        <v>959</v>
-      </c>
-      <c r="F48">
-        <v>4180</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>9.7222200000000001</v>
-      </c>
-      <c r="J48">
-        <v>1985</v>
-      </c>
-      <c r="K48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49">
-        <v>1985</v>
-      </c>
-      <c r="C49">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49">
-        <v>942</v>
-      </c>
-      <c r="F49">
-        <v>3020</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>9.5</v>
-      </c>
-      <c r="J49">
-        <v>1985</v>
-      </c>
-      <c r="K49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1">
-      <c r="A50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50">
-        <v>1985</v>
-      </c>
-      <c r="C50">
-        <v>12</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>971</v>
-      </c>
-      <c r="F50">
-        <v>4730</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>1.9444399999999999</v>
-      </c>
-      <c r="J50">
-        <v>1985</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1">
-      <c r="A51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51">
-        <v>1985</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>967</v>
-      </c>
-      <c r="F51">
-        <v>1310</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>9.6666699999999999</v>
-      </c>
-      <c r="J51">
-        <v>1985</v>
-      </c>
-      <c r="K51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1">
-      <c r="A52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52">
-        <v>1986</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>990</v>
-      </c>
-      <c r="F52">
-        <v>6</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>9.38889</v>
-      </c>
-      <c r="J52">
-        <v>1986</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1">
-      <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53">
-        <v>1986</v>
-      </c>
-      <c r="C53">
-        <v>5</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>990</v>
-      </c>
-      <c r="F53">
-        <v>58</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>2.88889</v>
-      </c>
-      <c r="J53">
-        <v>1986</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1">
-      <c r="A54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54">
-        <v>1987</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>993</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>1.8333299999999999</v>
-      </c>
-      <c r="J54">
-        <v>1987</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1">
-      <c r="A55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55">
-        <v>1988</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>984</v>
-      </c>
-      <c r="F55">
-        <v>4</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>8.3333300000000001</v>
-      </c>
-      <c r="J55">
-        <v>1988</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1">
-      <c r="A56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56">
-        <v>1989</v>
-      </c>
-      <c r="C56">
-        <v>13</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>986</v>
-      </c>
-      <c r="F56">
-        <v>290</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>9.0555599999999998</v>
-      </c>
-      <c r="J56">
-        <v>1989</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57">
-        <v>1989</v>
-      </c>
-      <c r="C57">
-        <v>21</v>
-      </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-      <c r="E57">
-        <v>934</v>
-      </c>
-      <c r="F57">
-        <v>20020</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>2.88889</v>
-      </c>
-      <c r="J57">
-        <v>1989</v>
-      </c>
-      <c r="K57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1">
-      <c r="A58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58">
-        <v>1989</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>983</v>
-      </c>
-      <c r="F58">
-        <v>230</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>2.3333300000000001</v>
-      </c>
-      <c r="J58">
-        <v>1989</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1">
-      <c r="A59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59">
-        <v>1991</v>
-      </c>
-      <c r="C59">
-        <v>15</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>962</v>
-      </c>
-      <c r="F59">
-        <v>3620</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>1.6666700000000001</v>
-      </c>
-      <c r="J59">
-        <v>1991</v>
-      </c>
-      <c r="K59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60">
-        <v>1992</v>
-      </c>
-      <c r="C60">
-        <v>62</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60">
-        <v>922</v>
-      </c>
-      <c r="F60">
-        <v>66730</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>2.2222200000000001</v>
-      </c>
-      <c r="J60">
-        <v>1992</v>
-      </c>
-      <c r="K60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61">
-        <v>1993</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-      <c r="E61">
-        <v>961</v>
-      </c>
-      <c r="F61">
-        <v>96</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>9.8333300000000001</v>
-      </c>
-      <c r="J61">
-        <v>1993</v>
-      </c>
-      <c r="K61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1">
-      <c r="A62" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62">
-        <v>1995</v>
-      </c>
-      <c r="C62">
-        <v>6</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>973</v>
-      </c>
-      <c r="F62">
-        <v>1650</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>7.2222200000000001</v>
-      </c>
-      <c r="J62">
-        <v>1995</v>
-      </c>
-      <c r="K62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63">
-        <v>1995</v>
-      </c>
-      <c r="C63">
-        <v>9</v>
-      </c>
-      <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63">
-        <v>942</v>
-      </c>
-      <c r="F63">
-        <v>7550</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>8.5</v>
-      </c>
-      <c r="J63">
-        <v>1995</v>
-      </c>
-      <c r="K63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1">
-      <c r="A64" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64">
-        <v>1996</v>
-      </c>
-      <c r="C64">
-        <v>8</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>974</v>
-      </c>
-      <c r="F64">
-        <v>700</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>8.5</v>
-      </c>
-      <c r="J64">
-        <v>1996</v>
-      </c>
-      <c r="K64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65">
-        <v>1996</v>
-      </c>
-      <c r="C65">
-        <v>26</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-      <c r="E65">
-        <v>954</v>
-      </c>
-      <c r="F65">
-        <v>8260</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>7.1666699999999999</v>
-      </c>
-      <c r="J65">
-        <v>1996</v>
-      </c>
-      <c r="K65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1">
-      <c r="A66" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66">
-        <v>1997</v>
-      </c>
-      <c r="C66">
-        <v>10</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>984</v>
-      </c>
-      <c r="F66">
-        <v>200</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>2.2222200000000001</v>
-      </c>
-      <c r="J66">
-        <v>1997</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1">
-      <c r="A67" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67">
-        <v>1998</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>964</v>
-      </c>
-      <c r="F67">
-        <v>1650</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>9.38889</v>
-      </c>
-      <c r="J67">
-        <v>1998</v>
-      </c>
-      <c r="K67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1">
-      <c r="A68" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68">
-        <v>1998</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>987</v>
-      </c>
-      <c r="F68">
-        <v>160</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>1.88889</v>
-      </c>
-      <c r="J68">
-        <v>1998</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1">
-      <c r="A69" t="s">
-        <v>99</v>
-      </c>
-      <c r="B69">
-        <v>1998</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69">
-        <v>964</v>
-      </c>
-      <c r="F69">
-        <v>3870</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>2.2777799999999999</v>
-      </c>
-      <c r="J69">
-        <v>1998</v>
-      </c>
-      <c r="K69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70">
-        <v>1999</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>3</v>
-      </c>
-      <c r="E70">
-        <v>951</v>
-      </c>
-      <c r="F70">
-        <v>94</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>2.3333300000000001</v>
-      </c>
-      <c r="J70">
-        <v>1999</v>
-      </c>
-      <c r="K70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1">
-      <c r="A71" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71">
-        <v>1999</v>
-      </c>
-      <c r="C71">
-        <v>56</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71">
-        <v>956</v>
-      </c>
-      <c r="F71">
-        <v>8130</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>1.8333299999999999</v>
-      </c>
-      <c r="J71">
-        <v>1999</v>
-      </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1">
-      <c r="A72" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72">
-        <v>1999</v>
-      </c>
-      <c r="C72">
-        <v>8</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>964</v>
-      </c>
-      <c r="F72">
-        <v>1430</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>9.2777799999999999</v>
-      </c>
-      <c r="J72">
-        <v>1999</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1">
-      <c r="A73" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73">
-        <v>2002</v>
-      </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>963</v>
-      </c>
-      <c r="F73">
-        <v>1260</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>10.33333</v>
-      </c>
-      <c r="J73">
-        <v>2002</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1">
-      <c r="A74" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74">
-        <v>2003</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>979</v>
-      </c>
-      <c r="F74">
-        <v>250</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>9.1666699999999999</v>
-      </c>
-      <c r="J74">
-        <v>2003</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1">
-      <c r="A75" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75">
-        <v>2003</v>
-      </c>
-      <c r="C75">
-        <v>51</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-      <c r="E75">
-        <v>957</v>
-      </c>
-      <c r="F75">
-        <v>4980</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>9.38889</v>
-      </c>
-      <c r="J75">
-        <v>2003</v>
-      </c>
-      <c r="K75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1">
-      <c r="A76" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76">
-        <v>2004</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>972</v>
-      </c>
-      <c r="F76">
-        <v>5</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>4.1666699999999999</v>
-      </c>
-      <c r="J76">
-        <v>2004</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" t="s">
-        <v>87</v>
-      </c>
-      <c r="B77">
-        <v>2004</v>
-      </c>
-      <c r="C77">
-        <v>10</v>
-      </c>
-      <c r="D77">
-        <v>4</v>
-      </c>
-      <c r="E77">
-        <v>941</v>
-      </c>
-      <c r="F77">
-        <v>20510</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>2.88889</v>
-      </c>
-      <c r="J77">
-        <v>2004</v>
-      </c>
-      <c r="K77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1">
-      <c r="A78" t="s">
-        <v>106</v>
-      </c>
-      <c r="B78">
-        <v>2004</v>
-      </c>
-      <c r="C78">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78">
-        <v>960</v>
-      </c>
-      <c r="F78">
-        <v>12620</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>6</v>
-      </c>
-      <c r="J78">
-        <v>2004</v>
-      </c>
-      <c r="K78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1">
-      <c r="A79" t="s">
-        <v>107</v>
-      </c>
-      <c r="B79">
-        <v>2004</v>
-      </c>
-      <c r="C79">
-        <v>8</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>985</v>
-      </c>
-      <c r="F79">
-        <v>170</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>2.6666699999999999</v>
-      </c>
-      <c r="J79">
-        <v>2004</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80">
-        <v>2004</v>
-      </c>
-      <c r="C80">
-        <v>25</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-      <c r="E80">
-        <v>946</v>
-      </c>
-      <c r="F80">
-        <v>18590</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>1.0555600000000001</v>
-      </c>
-      <c r="J80">
-        <v>2004</v>
-      </c>
-      <c r="K80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81">
-        <v>2004</v>
-      </c>
-      <c r="C81">
-        <v>5</v>
-      </c>
-      <c r="D81">
-        <v>3</v>
-      </c>
-      <c r="E81">
-        <v>950</v>
-      </c>
-      <c r="F81">
-        <v>10210</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>8.5</v>
-      </c>
-      <c r="J81">
-        <v>2004</v>
-      </c>
-      <c r="K81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1">
-      <c r="A82" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82">
-        <v>2005</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>991</v>
-      </c>
-      <c r="F82">
-        <v>350</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>9.9444400000000002</v>
-      </c>
-      <c r="J82">
-        <v>2005</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" t="s">
-        <v>110</v>
-      </c>
-      <c r="B83">
-        <v>2005</v>
-      </c>
-      <c r="C83">
-        <v>15</v>
-      </c>
-      <c r="D83">
-        <v>3</v>
-      </c>
-      <c r="E83">
-        <v>946</v>
-      </c>
-      <c r="F83">
-        <v>2650</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>2.4444400000000002</v>
-      </c>
-      <c r="J83">
-        <v>2005</v>
-      </c>
-      <c r="K83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1">
-      <c r="A84" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84">
-        <v>2005</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>982</v>
-      </c>
-      <c r="F84">
-        <v>91</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>9.1666699999999999</v>
-      </c>
-      <c r="J84">
-        <v>2005</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85">
-        <v>2005</v>
-      </c>
-      <c r="C85">
-        <v>62</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85">
-        <v>937</v>
-      </c>
-      <c r="F85">
-        <v>10690</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>9.5</v>
-      </c>
-      <c r="J85">
-        <v>2005</v>
-      </c>
-      <c r="K85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86">
-        <v>2005</v>
-      </c>
-      <c r="C86">
-        <v>5</v>
-      </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-      <c r="E86">
-        <v>950</v>
-      </c>
-      <c r="F86">
-        <v>25960</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>8.61111</v>
-      </c>
-      <c r="J86">
-        <v>2005</v>
-      </c>
-      <c r="K86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1">
-      <c r="A87" t="s">
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" s="3">
         <v>114</v>
       </c>
-      <c r="B87">
-        <v>2007</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>985</v>
-      </c>
-      <c r="F87">
-        <v>51</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>2.38889</v>
-      </c>
-      <c r="J87">
-        <v>2007</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1">
-      <c r="A88" t="s">
-        <v>115</v>
-      </c>
-      <c r="B88">
-        <v>2008</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>967</v>
-      </c>
-      <c r="F88">
-        <v>1110</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>9.8333300000000001</v>
-      </c>
-      <c r="J88">
-        <v>2008</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1">
-      <c r="A89" t="s">
-        <v>116</v>
-      </c>
-      <c r="B89">
-        <v>2008</v>
-      </c>
-      <c r="C89">
-        <v>52</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="E89">
-        <v>954</v>
-      </c>
-      <c r="F89">
-        <v>4360</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>1.7222200000000001</v>
-      </c>
-      <c r="J89">
-        <v>2008</v>
-      </c>
-      <c r="K89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1">
-      <c r="A90" t="s">
-        <v>117</v>
-      </c>
-      <c r="B90">
-        <v>2008</v>
-      </c>
-      <c r="C90">
-        <v>84</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90">
-        <v>950</v>
-      </c>
-      <c r="F90">
-        <v>20370</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>1.88889</v>
-      </c>
-      <c r="J90">
-        <v>2008</v>
-      </c>
-      <c r="K90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1">
-      <c r="A91" t="s">
-        <v>101</v>
-      </c>
-      <c r="B91">
-        <v>2011</v>
-      </c>
-      <c r="C91">
-        <v>41</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>952</v>
-      </c>
-      <c r="F91">
-        <v>7110</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>9.2777799999999999</v>
-      </c>
-      <c r="J91">
-        <v>2011</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1">
-      <c r="A92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B92">
-        <v>2012</v>
-      </c>
-      <c r="C92">
-        <v>5</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>966</v>
-      </c>
-      <c r="F92">
-        <v>24000</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>1.9444399999999999</v>
-      </c>
-      <c r="J92">
-        <v>2012</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1">
-      <c r="A93" t="s">
-        <v>119</v>
-      </c>
-      <c r="B93">
-        <v>2012</v>
-      </c>
-      <c r="C93">
-        <v>159</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93">
-        <v>942</v>
-      </c>
-      <c r="F93">
-        <v>75000</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>9</v>
-      </c>
-      <c r="J93">
-        <v>2012</v>
-      </c>
-      <c r="K93">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K93" xr:uid="{AD3F71F5-C412-4EB3-9BC8-C164B7FC55D2}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="3"/>
-        <filter val="4"/>
-        <filter val="5"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>